--- a/WorkWithExel/bin/Debug/exp.xlsx
+++ b/WorkWithExel/bin/Debug/exp.xlsx
@@ -23199,7 +23199,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -23232,10 +23232,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="116" customFormat="1" ht="54.75" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>7</v>
